--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_237__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_237__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5417,28 +5417,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>-1.03618335723877</c:v>
+                  <c:v>-1.036189913749695</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7435988783836365</c:v>
+                  <c:v>0.7435966730117798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.31465911865234</c:v>
+                  <c:v>36.31466674804688</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1397857218980789</c:v>
+                  <c:v>0.1397871971130371</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.51809692382812</c:v>
+                  <c:v>96.51808166503906</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.426528453826904</c:v>
+                  <c:v>2.426520347595215</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.858933091163635</c:v>
+                  <c:v>-1.858921408653259</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.094941854476929</c:v>
+                  <c:v>-2.094918251037598</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>91.62319946289062</c:v>
@@ -5450,16 +5450,16 @@
                   <c:v>88.28476715087891</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4214610755443573</c:v>
+                  <c:v>0.421464741230011</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.9108893275260925</c:v>
+                  <c:v>-0.910880446434021</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>80.53227233886719</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>93.94078063964844</c:v>
+                  <c:v>93.94077301025391</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>79.08188629150391</c:v>
@@ -5471,49 +5471,49 @@
                   <c:v>94.00955963134766</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.6884422302246094</c:v>
+                  <c:v>-0.6884569525718689</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100.0298767089844</c:v>
+                  <c:v>100.0298614501953</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-4.157753467559814</c:v>
+                  <c:v>-4.157763481140137</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>94.99100494384766</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.6050665378570557</c:v>
+                  <c:v>-0.6050812602043152</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.9131927490234375</c:v>
+                  <c:v>-0.9132075309753418</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.3495033383369446</c:v>
+                  <c:v>-0.3495040833950043</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-1.865366339683533</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.4161405563354492</c:v>
+                  <c:v>-0.416149377822876</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.6764624118804932</c:v>
+                  <c:v>-0.6764461994171143</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>79.41024780273438</c:v>
+                  <c:v>79.41025543212891</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-0.8460769057273865</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>94.47928619384766</c:v>
+                  <c:v>94.47930908203125</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>94.84499359130859</c:v>
+                  <c:v>94.84498596191406</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.144096732139587</c:v>
+                  <c:v>-1.144093751907349</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>85.55788421630859</c:v>
@@ -5522,34 +5522,34 @@
                   <c:v>-1.050027012825012</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>91.84886169433594</c:v>
+                  <c:v>91.84884643554688</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.3176759481430054</c:v>
+                  <c:v>-0.317672997713089</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>83.45278167724609</c:v>
+                  <c:v>83.45278930664062</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>75.28319549560547</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42.22773742675781</c:v>
+                  <c:v>42.22773361206055</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>94.50521850585938</c:v>
+                  <c:v>94.50519561767578</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.2495880126953125</c:v>
+                  <c:v>-0.2496145218610764</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>92.74398803710938</c:v>
+                  <c:v>92.74399566650391</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>96.60439300537109</c:v>
+                  <c:v>96.60437774658203</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-3.580463647842407</c:v>
+                  <c:v>-3.580469369888306</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-0.5686056613922119</c:v>
@@ -5558,55 +5558,55 @@
                   <c:v>97.51209259033203</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.2210420370101929</c:v>
+                  <c:v>-0.2210412919521332</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>-0.6810398697853088</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>95.31118011474609</c:v>
+                  <c:v>95.31120300292969</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>87.24671173095703</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.1984741985797882</c:v>
+                  <c:v>-0.1984712481498718</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>96.59978485107422</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>88.13995361328125</c:v>
+                  <c:v>88.13996887207031</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>92.55735015869141</c:v>
+                  <c:v>92.55736541748047</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.5815369486808777</c:v>
+                  <c:v>-0.5815281271934509</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>98.45050811767578</c:v>
+                  <c:v>98.45050048828125</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>95.14430236816406</c:v>
+                  <c:v>95.14429473876953</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.6817571520805359</c:v>
+                  <c:v>-0.6817556619644165</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>93.22897338867188</c:v>
+                  <c:v>93.22898864746094</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.2475246042013168</c:v>
+                  <c:v>-0.2475142925977707</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.2875643670558929</c:v>
+                  <c:v>-0.2875599563121796</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.5810936093330383</c:v>
+                  <c:v>-0.5810906887054443</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.9731125235557556</c:v>
+                  <c:v>-0.9731095433235168</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>88.041015625</c:v>
@@ -5618,19 +5618,19 @@
                   <c:v>79.73699188232422</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.2661143839359283</c:v>
+                  <c:v>-0.2661026120185852</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>94.87778472900391</c:v>
+                  <c:v>94.87779998779297</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>98.88025665283203</c:v>
+                  <c:v>98.8802490234375</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>98.10062408447266</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>88.20327758789062</c:v>
+                  <c:v>88.20326995849609</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>92.80464172363281</c:v>
@@ -5639,52 +5639,52 @@
                   <c:v>-1.979102492332458</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>96.60136413574219</c:v>
+                  <c:v>96.60134124755859</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>100.0393676757812</c:v>
+                  <c:v>100.0393600463867</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>78.77637481689453</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>85.03610229492188</c:v>
+                  <c:v>85.03608703613281</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.9105623364448547</c:v>
+                  <c:v>-0.9105358123779297</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>60.5645866394043</c:v>
+                  <c:v>60.56459426879883</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>94.38846588134766</c:v>
+                  <c:v>94.38845062255859</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>64.53945159912109</c:v>
+                  <c:v>64.53944396972656</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-1.450072646141052</c:v>
+                  <c:v>-1.450057983398438</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.2067263424396515</c:v>
+                  <c:v>-0.2067248672246933</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>97.88499450683594</c:v>
+                  <c:v>97.88500213623047</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.6076277494430542</c:v>
+                  <c:v>-0.6076233386993408</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.2682573199272156</c:v>
+                  <c:v>-0.268260270357132</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>101.5411987304688</c:v>
+                  <c:v>101.5412139892578</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.9473634362220764</c:v>
+                  <c:v>-0.9473545551300049</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>95.78719329833984</c:v>
+                  <c:v>95.78720092773438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-1.03618335723877</v>
+        <v>-1.036189913749695</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7435988783836365</v>
+        <v>0.7435966730117798</v>
       </c>
       <c r="G3">
         <v>111</v>
@@ -6443,7 +6443,7 @@
         <v>31.3344</v>
       </c>
       <c r="F4">
-        <v>36.31465911865234</v>
+        <v>36.31466674804688</v>
       </c>
       <c r="G4">
         <v>111</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1397857218980789</v>
+        <v>0.1397871971130371</v>
       </c>
       <c r="G5">
         <v>111</v>
@@ -6507,7 +6507,7 @@
         <v>93.8986</v>
       </c>
       <c r="F6">
-        <v>96.51809692382812</v>
+        <v>96.51808166503906</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6539,7 +6539,7 @@
         <v>48.757</v>
       </c>
       <c r="F7">
-        <v>2.426528453826904</v>
+        <v>2.426520347595215</v>
       </c>
       <c r="G7">
         <v>111</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.858933091163635</v>
+        <v>-1.858921408653259</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-2.094941854476929</v>
+        <v>-2.094918251037598</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4214610755443573</v>
+        <v>0.421464741230011</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.9108893275260925</v>
+        <v>-0.910880446434021</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>92.98990000000001</v>
       </c>
       <c r="F16">
-        <v>93.94078063964844</v>
+        <v>93.94077301025391</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.6884422302246094</v>
+        <v>-0.6884569525718689</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>98.4349</v>
       </c>
       <c r="F21">
-        <v>100.0298767089844</v>
+        <v>100.0298614501953</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>33.6509</v>
       </c>
       <c r="F22">
-        <v>-4.157753467559814</v>
+        <v>-4.157763481140137</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-0.6050665378570557</v>
+        <v>-0.6050812602043152</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-0.9131927490234375</v>
+        <v>-0.9132075309753418</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-0.3495033383369446</v>
+        <v>-0.3495040833950043</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-0.4161405563354492</v>
+        <v>-0.416149377822876</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-0.6764624118804932</v>
+        <v>-0.6764461994171143</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>77.453</v>
       </c>
       <c r="F30">
-        <v>79.41024780273438</v>
+        <v>79.41025543212891</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>94.3853</v>
       </c>
       <c r="F32">
-        <v>94.47928619384766</v>
+        <v>94.47930908203125</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>94.9969</v>
       </c>
       <c r="F33">
-        <v>94.84499359130859</v>
+        <v>94.84498596191406</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-1.144096732139587</v>
+        <v>-1.144093751907349</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>93.1272</v>
       </c>
       <c r="F37">
-        <v>91.84886169433594</v>
+        <v>91.84884643554688</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-0.3176759481430054</v>
+        <v>-0.317672997713089</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>81.6122</v>
       </c>
       <c r="F39">
-        <v>83.45278167724609</v>
+        <v>83.45278930664062</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>69.4635</v>
       </c>
       <c r="F41">
-        <v>42.22773742675781</v>
+        <v>42.22773361206055</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>94.5993</v>
       </c>
       <c r="F42">
-        <v>94.50521850585938</v>
+        <v>94.50519561767578</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-0.2495880126953125</v>
+        <v>-0.2496145218610764</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>97.666</v>
       </c>
       <c r="F44">
-        <v>92.74398803710938</v>
+        <v>92.74399566650391</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>97.0868</v>
       </c>
       <c r="F45">
-        <v>96.60439300537109</v>
+        <v>96.60437774658203</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-3.580463647842407</v>
+        <v>-3.580469369888306</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-0.2210420370101929</v>
+        <v>-0.2210412919521332</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>95.00530000000001</v>
       </c>
       <c r="F51">
-        <v>95.31118011474609</v>
+        <v>95.31120300292969</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-0.1984741985797882</v>
+        <v>-0.1984712481498718</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>80.4803</v>
       </c>
       <c r="F55">
-        <v>88.13995361328125</v>
+        <v>88.13996887207031</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>93.425</v>
       </c>
       <c r="F56">
-        <v>92.55735015869141</v>
+        <v>92.55736541748047</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-0.5815369486808777</v>
+        <v>-0.5815281271934509</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>98.0081</v>
       </c>
       <c r="F58">
-        <v>98.45050811767578</v>
+        <v>98.45050048828125</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>94.0821</v>
       </c>
       <c r="F59">
-        <v>95.14430236816406</v>
+        <v>95.14429473876953</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-0.6817571520805359</v>
+        <v>-0.6817556619644165</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>91.2393</v>
       </c>
       <c r="F61">
-        <v>93.22897338867188</v>
+        <v>93.22898864746094</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-0.2475246042013168</v>
+        <v>-0.2475142925977707</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-0.2875643670558929</v>
+        <v>-0.2875599563121796</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>-0.5810936093330383</v>
+        <v>-0.5810906887054443</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>-0.9731125235557556</v>
+        <v>-0.9731095433235168</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>-0.2661143839359283</v>
+        <v>-0.2661026120185852</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>95.2567</v>
       </c>
       <c r="F70">
-        <v>94.87778472900391</v>
+        <v>94.87779998779297</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>98.4734</v>
       </c>
       <c r="F71">
-        <v>98.88025665283203</v>
+        <v>98.8802490234375</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>89.2407</v>
       </c>
       <c r="F73">
-        <v>88.20327758789062</v>
+        <v>88.20326995849609</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>94.8021</v>
       </c>
       <c r="F76">
-        <v>96.60136413574219</v>
+        <v>96.60134124755859</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>98.31310000000001</v>
       </c>
       <c r="F77">
-        <v>100.0393676757812</v>
+        <v>100.0393600463867</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>88.10899999999999</v>
       </c>
       <c r="F79">
-        <v>85.03610229492188</v>
+        <v>85.03608703613281</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>-0.9105623364448547</v>
+        <v>-0.9105358123779297</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>87.7663</v>
       </c>
       <c r="F81">
-        <v>60.5645866394043</v>
+        <v>60.56459426879883</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>94.37</v>
       </c>
       <c r="F82">
-        <v>94.38846588134766</v>
+        <v>94.38845062255859</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>61.4721</v>
       </c>
       <c r="F83">
-        <v>64.53945159912109</v>
+        <v>64.53944396972656</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-1.450072646141052</v>
+        <v>-1.450057983398438</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>-0.2067263424396515</v>
+        <v>-0.2067248672246933</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>95.40600000000001</v>
       </c>
       <c r="F86">
-        <v>97.88499450683594</v>
+        <v>97.88500213623047</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>-0.6076277494430542</v>
+        <v>-0.6076233386993408</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>-0.2682573199272156</v>
+        <v>-0.268260270357132</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>97.99339999999999</v>
       </c>
       <c r="F89">
-        <v>101.5411987304688</v>
+        <v>101.5412139892578</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-0.9473634362220764</v>
+        <v>-0.9473545551300049</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>94.4374</v>
       </c>
       <c r="F91">
-        <v>95.78719329833984</v>
+        <v>95.78720092773438</v>
       </c>
     </row>
     <row r="92" spans="1:6">
